--- a/03 - Diverses/LB2 BewertungsrasterV25.xlsx
+++ b/03 - Diverses/LB2 BewertungsrasterV25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\m158\02_Projekt Migration\WordPress-Web-App-Migration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koichiro.moeller\OneDrive - TBZ\Dokumente\M158\M158\03 - Diverses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913616A8-C094-4B8F-AF6F-066EE3D7F855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1939B947-69B9-42AD-918B-180190F42A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{E1618B5A-407E-4F25-A1A3-195E11707F44}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1618B5A-407E-4F25-A1A3-195E11707F44}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Nr.</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>Sie haben alle Komponenten mit Docker Compose umgesetzt.</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -803,21 +806,21 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="1"/>
-    <col min="2" max="2" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.26953125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="1"/>
+    <col min="2" max="2" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="28" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="36.6328125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.90625" style="1"/>
+    <col min="6" max="6" width="12.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="36.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1">
@@ -832,22 +835,22 @@
       </c>
       <c r="F1" s="11">
         <f>COUNTIF(D4:H17,"x")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>51</v>
       </c>
       <c r="I1" s="11">
         <f>F1/(COUNTA(E4:E15,G4:G15,I4:I15))*5+1</f>
-        <v>1</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="J1" s="1">
         <f>ROUND(I1,1.1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.5" thickBot="1"/>
-    <row r="3" spans="1:10" ht="14.5" thickBot="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.4" thickBot="1"/>
+    <row r="3" spans="1:10" ht="14.4" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -876,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="70" customHeight="1" thickBot="1">
+    <row r="4" spans="1:10" ht="70.05" customHeight="1" thickBot="1">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -890,7 +893,9 @@
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
@@ -922,7 +927,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="64" customHeight="1" thickBot="1">
+    <row r="6" spans="1:10" ht="64.05" customHeight="1" thickBot="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -966,7 +971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="112" customHeight="1" thickBot="1">
+    <row r="8" spans="1:10" ht="112.05" customHeight="1" thickBot="1">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -989,7 +994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="134" customHeight="1" thickBot="1">
+    <row r="9" spans="1:10" ht="133.94999999999999" customHeight="1" thickBot="1">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -1058,7 +1063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="99.5" customHeight="1" thickBot="1">
+    <row r="12" spans="1:10" ht="99.45" customHeight="1" thickBot="1">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1081,7 +1086,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="78.5" customHeight="1" thickBot="1">
+    <row r="13" spans="1:10" ht="78.45" customHeight="1" thickBot="1">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -1127,7 +1132,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="113" customHeight="1" thickBot="1">
+    <row r="15" spans="1:10" ht="112.95" customHeight="1" thickBot="1">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -1173,7 +1178,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="102.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:9" ht="102.45" customHeight="1" thickBot="1">
       <c r="A17" s="3">
         <v>14</v>
       </c>

--- a/03 - Diverses/LB2 BewertungsrasterV25.xlsx
+++ b/03 - Diverses/LB2 BewertungsrasterV25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koichiro.moeller\OneDrive - TBZ\Dokumente\M158\M158\03 - Diverses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tbzedu-my.sharepoint.com/personal/koichiro_moeller_edu_tbz_ch/Documents/Dokumente/M158/M158/03 - Diverses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1939B947-69B9-42AD-918B-180190F42A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1939B947-69B9-42AD-918B-180190F42A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C214170-EAFC-422C-8DB4-4400EA37EE7D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1618B5A-407E-4F25-A1A3-195E11707F44}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>Nr.</t>
   </si>
@@ -805,8 +805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185EEDA7-3130-4179-85EA-A2A732F9FE70}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8"/>
@@ -835,18 +835,18 @@
       </c>
       <c r="F1" s="11">
         <f>COUNTIF(D4:H17,"x")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>51</v>
       </c>
       <c r="I1" s="11">
         <f>F1/(COUNTA(E4:E15,G4:G15,I4:I15))*5+1</f>
-        <v>1.1428571428571428</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="J1" s="1">
         <f>ROUND(I1,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.4" thickBot="1"/>
@@ -889,7 +889,9 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
@@ -899,7 +901,9 @@
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="I4" s="3" t="s">
         <v>54</v>
       </c>
@@ -937,15 +941,21 @@
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="36" customHeight="1" thickBot="1">

--- a/03 - Diverses/LB2 BewertungsrasterV25.xlsx
+++ b/03 - Diverses/LB2 BewertungsrasterV25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tbzedu-my.sharepoint.com/personal/koichiro_moeller_edu_tbz_ch/Documents/Dokumente/M158/M158/03 - Diverses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{1939B947-69B9-42AD-918B-180190F42A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C214170-EAFC-422C-8DB4-4400EA37EE7D}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{1939B947-69B9-42AD-918B-180190F42A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{479AC0CA-3957-4E18-82BF-CCDFD033BF47}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1618B5A-407E-4F25-A1A3-195E11707F44}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Nr.</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t>Sie haben alle Komponenten mit Docker Compose umgesetzt.</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
@@ -805,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185EEDA7-3130-4179-85EA-A2A732F9FE70}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8"/>
@@ -835,18 +832,18 @@
       </c>
       <c r="F1" s="11">
         <f>COUNTIF(D4:H17,"x")</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>51</v>
       </c>
       <c r="I1" s="11">
         <f>F1/(COUNTA(E4:E15,G4:G15,I4:I15))*5+1</f>
-        <v>1.8571428571428572</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1">
         <f>ROUND(I1,1.1)</f>
-        <v>1.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.4" thickBot="1"/>
@@ -889,21 +886,15 @@
       <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
         <v>54</v>
       </c>
@@ -941,21 +932,15 @@
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:10" ht="36" customHeight="1" thickBot="1">
